--- a/keyrate100a-0.5b-0.5nodenum-50.xlsx
+++ b/keyrate100a-0.5b-0.5nodenum-50.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>reqkeynum</t>
+          <t>reqkeyrate</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -493,368 +493,368 @@
         <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.09375</v>
       </c>
       <c r="H2" t="n">
-        <v>190.9090909090909</v>
+        <v>2640</v>
       </c>
       <c r="I2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.6363636363636</v>
+        <v>2653.125</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B3" t="n">
-        <v>0.16</v>
+        <v>0.51</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2627118644067797</v>
+        <v>0.6902985074626866</v>
       </c>
       <c r="H3" t="n">
-        <v>285.7142857142857</v>
+        <v>4013.793103448276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>393.2203389830509</v>
+        <v>2650.746268656716</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B4" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.3527815468113976</v>
       </c>
       <c r="H4" t="n">
-        <v>664.2857142857143</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>692.6470588235294</v>
+        <v>2543.283582089552</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7016129032258065</v>
+        <v>0.361904761904762</v>
       </c>
       <c r="H5" t="n">
-        <v>866.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>977.4193548387096</v>
+        <v>2624</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.3565062388591802</v>
       </c>
       <c r="H6" t="n">
-        <v>562.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1169.491525423729</v>
+        <v>2609.090909090909</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.153846153846154</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="H7" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1557.692307692308</v>
+        <v>2695.081967213115</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2457466918714556</v>
       </c>
       <c r="H8" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1592.857142857143</v>
+        <v>2730.434782608696</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="B9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.712765957446809</v>
+        <v>0.1748251748251749</v>
       </c>
       <c r="H9" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1906.382978723404</v>
+        <v>2563.636363636364</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="B10" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.488372093023256</v>
+        <v>0.2037617554858935</v>
       </c>
       <c r="H10" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1946.511627906977</v>
+        <v>2645.454545454545</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
